--- a/table_schema.xlsx
+++ b/table_schema.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yichen/Desktop/hr_bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FC4178-BA20-A441-9D4C-3F5B61C5030F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF10EA4-5850-A94E-A448-4C676C5A7D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16780" activeTab="1" xr2:uid="{E23C1A2C-3772-0A45-9F44-C5D6AB4FCA5D}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16780" xr2:uid="{E23C1A2C-3772-0A45-9F44-C5D6AB4FCA5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="ERD_v1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="333">
   <si>
     <t>job_id</t>
   </si>
@@ -55,9 +55,6 @@
     <t>job_cat_desc</t>
   </si>
   <si>
-    <t>工作類型</t>
-  </si>
-  <si>
     <t>company_name</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
   </si>
   <si>
     <t>job_desc</t>
-  </si>
-  <si>
-    <t>職缺說明</t>
   </si>
   <si>
     <t>job_type</t>
@@ -913,6 +907,1068 @@
   </si>
   <si>
     <t>ＴＯＤＯ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>職缺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>職缺編號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>職缺名稱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>工作類型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>工作類型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>公司名稱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>公司編號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>需求人數描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>最低需求人數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>最高需求人數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>應徵人數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>最低薪資</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>最高薪資</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>薪資描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>薪資類型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>薪資類型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>職缺說明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>職缺類別</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>學歷要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>經驗要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>技能要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>專長要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>科系要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>語言要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>地方語言要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>證照要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>駕照要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>其他要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>接受身份</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>婉拒身份</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>管理責任</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>出差外派</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>上班時段</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>休假制度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>可上班日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工作地區</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>工作縣市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>工作地點</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>經度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>緯度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>出現日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>結束時間</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>開缺時間長度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>職缺存在</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>職缺分類</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>首爬日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>爬蟲日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>更新日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>性別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>學歷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年齡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工作經驗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>語言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>科系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>技能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>證照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>產業編號</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>產業描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>產業類別</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>員工人數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>資本額</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>公司介紹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>主要商品</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>經營理念</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>福利介紹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>福利標籤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>法定標籤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司地區</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>公司縣市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>公司地點</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>公司集團</t>
+    </r>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次更新的應徵統計</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新公司資訊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新職缺資訊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>salary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>估算年薪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>應徵統計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>每週三，插值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>represent_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>represent_date_min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>represent_date_max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>代表日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>下限</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>代表日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>上限</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求人數</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +1976,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -968,13 +2024,71 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -991,7 +2105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,6 +2122,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,1093 +2465,1868 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BF751F-C90B-5A40-8EEB-93D01660E6BD}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="6">
+        <v>20210717</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16">
-      <c r="A2" s="1" t="s">
+      <c r="B61" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="2" t="s">
+      <c r="B97" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16">
-      <c r="A4" s="2" t="s">
+      <c r="B98" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16">
-      <c r="A5" s="2" t="s">
+      <c r="E99" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16">
-      <c r="A6" s="2" t="s">
+      <c r="E104" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="E105" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="123" spans="1:4">
+      <c r="A123" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16">
-      <c r="A24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16">
-      <c r="A25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16">
-      <c r="A26" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16">
-      <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16">
-      <c r="A28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16">
-      <c r="A29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16">
-      <c r="A30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16">
-      <c r="A31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16">
-      <c r="A32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16">
-      <c r="A33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16">
-      <c r="A34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16">
-      <c r="A35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16">
-      <c r="A36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16">
-      <c r="A37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16">
-      <c r="A38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16">
-      <c r="A39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16">
-      <c r="A40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16">
-      <c r="A41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16">
-      <c r="A42" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16">
-      <c r="A43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16">
-      <c r="A44" s="2" t="s">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="D143" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="D144" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16">
-      <c r="A45" s="2" t="s">
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16">
-      <c r="A46" s="2" t="s">
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16">
-      <c r="A47" s="2" t="s">
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16">
-      <c r="A48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16">
-      <c r="A49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16">
-      <c r="A50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16">
-      <c r="A51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16">
-      <c r="A54" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16">
-      <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16">
-      <c r="A56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16">
-      <c r="A57" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16">
-      <c r="A58" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16">
-      <c r="A59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16">
-      <c r="A60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16">
-      <c r="A61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16">
-      <c r="A62" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16">
-      <c r="A63" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16">
-      <c r="A64" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16">
-      <c r="A65" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16">
-      <c r="A66" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16">
-      <c r="A67" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="16">
-      <c r="A68" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="16">
-      <c r="A71" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="16">
-      <c r="A72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="16">
-      <c r="A73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="16">
-      <c r="A74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="16">
-      <c r="A75" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="16">
-      <c r="A76" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="16">
-      <c r="A77" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="16">
-      <c r="A78" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="16">
-      <c r="A79" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="16">
-      <c r="A80" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16">
-      <c r="A81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16">
-      <c r="A82" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16">
-      <c r="A83" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16">
-      <c r="A84" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16">
-      <c r="A85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16">
-      <c r="A86" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C86" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16">
-      <c r="A87" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16">
-      <c r="A88" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16">
-      <c r="A89" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C89" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="16">
-      <c r="A90" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="16">
-      <c r="A93" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="16">
-      <c r="A94" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="16">
-      <c r="A95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="16">
-      <c r="A96" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="16">
-      <c r="A97" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="16">
-      <c r="A98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="16">
-      <c r="A99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="16">
-      <c r="A100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="16">
-      <c r="A101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="16">
-      <c r="A102" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="16">
-      <c r="A103" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="16">
-      <c r="A104" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="16">
-      <c r="A105" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="16">
-      <c r="A106" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="16">
-      <c r="A107" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="16">
-      <c r="A108" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="16">
-      <c r="A109" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="16">
-      <c r="A110" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="16">
-      <c r="A111" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="16">
-      <c r="A112" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="16">
-      <c r="A113" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="16">
-      <c r="A114" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="16">
-      <c r="A115" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="16">
-      <c r="A116" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="16">
-      <c r="A117" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="16">
-      <c r="A118" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="16">
-      <c r="A119" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="16">
-      <c r="A120" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="16">
-      <c r="A121" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="16">
-      <c r="A122" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="16">
-      <c r="A123" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="16">
-      <c r="A124" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="16">
-      <c r="A125" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="16">
-      <c r="A126" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="16">
-      <c r="A127" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="16">
-      <c r="A128" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="16">
-      <c r="A129" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="16">
-      <c r="A130" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="16">
-      <c r="A131" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="16">
-      <c r="A132" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="16">
-      <c r="A133" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="16">
-      <c r="A134" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="16">
-      <c r="A135" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="16">
-      <c r="A136" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="16">
-      <c r="A137" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="16">
-      <c r="A138" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="16">
-      <c r="A139" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="16">
-      <c r="A140" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="16">
-      <c r="A141" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="16">
-      <c r="A142" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="16">
-      <c r="A143" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="16">
-      <c r="A144" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="16">
-      <c r="A145" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="16">
-      <c r="A146" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="16">
-      <c r="A147" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="16">
-      <c r="A148" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="16">
-      <c r="A149" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="16">
-      <c r="A150" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="16">
-      <c r="A151" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="16">
-      <c r="A152" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="16">
-      <c r="A153" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="16">
-      <c r="A154" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="16">
-      <c r="A155" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="16">
-      <c r="A156" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="16">
-      <c r="A157" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="16">
-      <c r="A158" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="16">
-      <c r="A159" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2423,7 +4339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3A391-4416-5E40-A82D-938567559D65}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+    <sheetView zoomScale="132" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -2436,16 +4352,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="C1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16">
@@ -2459,10 +4375,10 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
@@ -2476,10 +4392,10 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16">
@@ -2493,10 +4409,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19">
@@ -2504,12 +4420,12 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -2518,98 +4434,98 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="19">
       <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19">
       <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19">
       <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16">
       <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2617,154 +4533,154 @@
     </row>
     <row r="12" spans="1:9" ht="16">
       <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19">
       <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="19">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19">
       <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19">
       <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="19">
       <c r="A17" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16">
       <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="19">
       <c r="A19" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -2773,432 +4689,432 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="19">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="19">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="19">
       <c r="A26" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="19">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="19">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="19">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="19">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="19">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="19">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="19">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="19">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="19">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="19">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="19">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="19">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:7" ht="19">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="16">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="19">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="19">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="19">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="19">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="19">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="16">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:7" ht="16">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:7" ht="16">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="16">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3207,190 +5123,190 @@
     </row>
     <row r="52" spans="1:7" ht="19">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:7" ht="19">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="19">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="19">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="19">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:7" ht="19">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="19">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:7" ht="19">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7" ht="19">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7" ht="19">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="19">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="19">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="19">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -3398,13 +5314,13 @@
     </row>
     <row r="65" spans="1:6" ht="19">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -3412,13 +5328,13 @@
     </row>
     <row r="66" spans="1:6" ht="19">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -3426,13 +5342,13 @@
     </row>
     <row r="67" spans="1:6" ht="19">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -3440,13 +5356,13 @@
     </row>
     <row r="68" spans="1:6" ht="19">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -3454,13 +5370,13 @@
     </row>
     <row r="69" spans="1:6" ht="19">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5"/>
@@ -3468,13 +5384,13 @@
     </row>
     <row r="70" spans="1:6" ht="19">
       <c r="A70" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5"/>
@@ -3482,13 +5398,13 @@
     </row>
     <row r="71" spans="1:6" ht="19">
       <c r="A71" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5"/>
@@ -3496,13 +5412,13 @@
     </row>
     <row r="72" spans="1:6" ht="16">
       <c r="A72" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3510,13 +5426,13 @@
     </row>
     <row r="73" spans="1:6" ht="16">
       <c r="A73" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3524,13 +5440,13 @@
     </row>
     <row r="74" spans="1:6" ht="19">
       <c r="A74" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3538,13 +5454,13 @@
     </row>
     <row r="75" spans="1:6" ht="16">
       <c r="A75" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>

--- a/table_schema.xlsx
+++ b/table_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yichen/Desktop/hr_bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF10EA4-5850-A94E-A448-4C676C5A7D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAA7022-F1E7-844A-9CA8-E13EFA318941}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16780" xr2:uid="{E23C1A2C-3772-0A45-9F44-C5D6AB4FCA5D}"/>
   </bookViews>
@@ -2467,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BF751F-C90B-5A40-8EEB-93D01660E6BD}">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/table_schema.xlsx
+++ b/table_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yichen/Desktop/hr_bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAA7022-F1E7-844A-9CA8-E13EFA318941}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F2C7B-C818-524D-B54B-99BD3E25440E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16780" xr2:uid="{E23C1A2C-3772-0A45-9F44-C5D6AB4FCA5D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="335">
   <si>
     <t>job_id</t>
   </si>
@@ -1969,6 +1969,14 @@
   </si>
   <si>
     <t>需求人數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2467,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BF751F-C90B-5A40-8EEB-93D01660E6BD}">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3800,7 +3808,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="6" t="s">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>245</v>
@@ -3814,7 +3822,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="6" t="s">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>246</v>
@@ -3853,10 +3861,10 @@
       <c r="C100" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="12" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3870,10 +3878,10 @@
       <c r="C101" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="12" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4230,11 +4238,23 @@
       </c>
     </row>
     <row r="143" spans="1:4">
+      <c r="A143" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="D143" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:4">
+      <c r="A144" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>293</v>
+      </c>
       <c r="D144" s="6" t="s">
         <v>170</v>
       </c>

--- a/table_schema.xlsx
+++ b/table_schema.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yichen/Desktop/hr_bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F2C7B-C818-524D-B54B-99BD3E25440E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4288193-67B3-2D4B-ADD3-6F3143F83705}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16780" xr2:uid="{E23C1A2C-3772-0A45-9F44-C5D6AB4FCA5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="ERD_v1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="欄位中英參考" sheetId="3" r:id="rId1"/>
+    <sheet name="ERD_TEMP1" sheetId="1" r:id="rId2"/>
+    <sheet name="ERD_TEMP2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="387">
   <si>
     <t>job_id</t>
   </si>
@@ -1978,13 +1979,204 @@
   <si>
     <t>job_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文欄位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：富邦人壽、北富銀，皆為「富邦」</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定義不確定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作類型</t>
+  </si>
+  <si>
+    <t>職缺說明</t>
+  </si>
+  <si>
+    <t>工作地區</t>
+  </si>
+  <si>
+    <t>性別json</t>
+  </si>
+  <si>
+    <t>學歷json</t>
+  </si>
+  <si>
+    <t>年齡json</t>
+  </si>
+  <si>
+    <t>工作經驗json</t>
+  </si>
+  <si>
+    <t>語言json</t>
+  </si>
+  <si>
+    <t>科系json</t>
+  </si>
+  <si>
+    <t>公司地區</t>
+  </si>
+  <si>
+    <t>薪水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t># If salary_max is larger than salary_min by 25%, then set 125% of salary_min as salary_max.
+    if salary_max / salary_min &gt; 1.25:
+        salary_max = salary_min * 1.25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求人數描述 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性應徵人數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性應徵人數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>國中小學歷應徵人數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中學歷應徵人數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碩博士學歷應徵人數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大學學歷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>應徵人數</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20歲以下應徵人數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文要求</t>
+  </si>
+  <si>
+    <t>日文要求</t>
+  </si>
+  <si>
+    <t>韓文要求</t>
+  </si>
+  <si>
+    <t>21~25歲應徵人數</t>
+  </si>
+  <si>
+    <t>26~30歲應徵人數</t>
+  </si>
+  <si>
+    <t>31~35歲應徵人數</t>
+  </si>
+  <si>
+    <t>36~40歲應徵人數</t>
+  </si>
+  <si>
+    <t>41~45歲應徵人數</t>
+  </si>
+  <si>
+    <t>46~50歲應徵人數</t>
+  </si>
+  <si>
+    <t>51~55歲應徵人數</t>
+  </si>
+  <si>
+    <t>56~60歲應徵人數</t>
+  </si>
+  <si>
+    <t>60歲以上應徵人數</t>
+  </si>
+  <si>
+    <t>無工作經驗應徵人數</t>
+  </si>
+  <si>
+    <t>1年以下經驗應徵人數</t>
+  </si>
+  <si>
+    <t>1~3年經驗應徵人數</t>
+  </si>
+  <si>
+    <t>3~5年經驗應徵人數</t>
+  </si>
+  <si>
+    <t>5~10年經驗應徵人數</t>
+  </si>
+  <si>
+    <t>10~15年經驗應徵人數</t>
+  </si>
+  <si>
+    <t>15~20年經驗應徵人數</t>
+  </si>
+  <si>
+    <t>20~25年經驗應徵人數</t>
+  </si>
+  <si>
+    <t>25年以上經驗應徵人數</t>
+  </si>
+  <si>
+    <t>資管系應徵人數</t>
+  </si>
+  <si>
+    <t>資工系應徵人數</t>
+  </si>
+  <si>
+    <t>統計系應徵人數</t>
+  </si>
+  <si>
+    <t>數理統計系應徵人數</t>
+  </si>
+  <si>
+    <t>Java專長應徵人數</t>
+  </si>
+  <si>
+    <t>Python專長應徵人數</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2078,8 +2270,24 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2098,13 +2306,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2113,7 +2336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2157,6 +2380,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2472,11 +2704,938 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE3A68A-346C-2043-B244-396510BB2748}">
+  <dimension ref="A1:C111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16">
+      <c r="A14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16">
+      <c r="A17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16">
+      <c r="A19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16">
+      <c r="A20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16">
+      <c r="A21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16">
+      <c r="A22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16">
+      <c r="A23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16">
+      <c r="A24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16">
+      <c r="A26" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16">
+      <c r="A29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16">
+      <c r="A30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16">
+      <c r="A31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16">
+      <c r="A32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16">
+      <c r="A33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16">
+      <c r="A34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16">
+      <c r="A35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16">
+      <c r="A36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16">
+      <c r="A37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16">
+      <c r="A38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16">
+      <c r="A39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16">
+      <c r="A40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16">
+      <c r="A41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16">
+      <c r="A42" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16">
+      <c r="A43" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16">
+      <c r="A44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16">
+      <c r="A45" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16">
+      <c r="A46" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16">
+      <c r="A47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16">
+      <c r="A48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16">
+      <c r="A49" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16">
+      <c r="A50" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16">
+      <c r="A51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16">
+      <c r="A52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16">
+      <c r="A53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16">
+      <c r="A54" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16">
+      <c r="A55" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16">
+      <c r="A56" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16">
+      <c r="A57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16">
+      <c r="A58" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16">
+      <c r="A59" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16">
+      <c r="A60" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16">
+      <c r="A61" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16">
+      <c r="A62" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16">
+      <c r="A63" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16">
+      <c r="A64" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16">
+      <c r="A65" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16">
+      <c r="A66" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16">
+      <c r="A67" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16">
+      <c r="A68" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16">
+      <c r="A69" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16">
+      <c r="A70" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16">
+      <c r="A71" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16">
+      <c r="A72" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16">
+      <c r="A73" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16">
+      <c r="A74" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16">
+      <c r="A75" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="64">
+      <c r="A76" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16">
+      <c r="A77" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16">
+      <c r="A78" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16">
+      <c r="A79" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16">
+      <c r="A80" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16">
+      <c r="A81" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="16">
+      <c r="A82" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="16">
+      <c r="A83" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="16">
+      <c r="A84" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="16">
+      <c r="A85" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16">
+      <c r="A86" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16">
+      <c r="A87" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16">
+      <c r="A88" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="16">
+      <c r="A89" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="16">
+      <c r="A90" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="16">
+      <c r="A91" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="16">
+      <c r="A92" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="16">
+      <c r="A93" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16">
+      <c r="A94" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16">
+      <c r="A95" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16">
+      <c r="A96" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16">
+      <c r="A97" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16">
+      <c r="A98" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16">
+      <c r="A99" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16">
+      <c r="A100" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B100" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16">
+      <c r="A101" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="16">
+      <c r="A102" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="16">
+      <c r="A103" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="16">
+      <c r="A104" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16">
+      <c r="A105" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="16">
+      <c r="A106" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="16">
+      <c r="A107" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="16">
+      <c r="A108" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B108" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="16">
+      <c r="A109" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="16">
+      <c r="A110" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="16">
+      <c r="A111" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BF751F-C90B-5A40-8EEB-93D01660E6BD}">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4355,11 +5514,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3A391-4416-5E40-A82D-938567559D65}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="132" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
